--- a/datasource/data source_課程資料/skill_curriculum/普高/skill_curriculum/skill_curriculum_數學甲(上).xlsx
+++ b/datasource/data source_課程資料/skill_curriculum/普高/skill_curriculum/skill_curriculum_數學甲(上).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\math-master\document\data source_課程資料\普高\skill_curriculum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\math-master\datasource\data source_課程資料\skill_curriculum\普高\skill_curriculum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11503"/>
   </bookViews>
   <sheets>
     <sheet name="規則一樣 接著是數學數學甲(上) skill_curricul" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="75">
   <si>
     <t>skill_id</t>
   </si>
@@ -513,15 +513,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I40"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -579,7 +579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -608,7 +608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -637,7 +637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -666,7 +666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -695,7 +695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -724,7 +724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -753,7 +753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -811,7 +811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -840,7 +840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -869,7 +869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -898,7 +898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -927,7 +927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -956,7 +956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -985,7 +985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>67</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>68</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>73</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>74</v>
       </c>
@@ -1678,6 +1678,1137 @@
         <v>30</v>
       </c>
       <c r="I40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1">
+        <v>12</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>10</v>
+      </c>
+      <c r="I41" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1">
+        <v>12</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>20</v>
+      </c>
+      <c r="I42" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1">
+        <v>12</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3</v>
+      </c>
+      <c r="H43" s="1">
+        <v>30</v>
+      </c>
+      <c r="I43" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1">
+        <v>12</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>10</v>
+      </c>
+      <c r="I44" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1">
+        <v>12</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2</v>
+      </c>
+      <c r="H45" s="1">
+        <v>20</v>
+      </c>
+      <c r="I45" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="1">
+        <v>12</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>10</v>
+      </c>
+      <c r="I46" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="1">
+        <v>12</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="1">
+        <v>2</v>
+      </c>
+      <c r="H47" s="1">
+        <v>20</v>
+      </c>
+      <c r="I47" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1">
+        <v>12</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="1">
+        <v>3</v>
+      </c>
+      <c r="H48" s="1">
+        <v>30</v>
+      </c>
+      <c r="I48" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1">
+        <v>12</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>10</v>
+      </c>
+      <c r="I49" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="1">
+        <v>12</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="1">
+        <v>2</v>
+      </c>
+      <c r="H50" s="1">
+        <v>20</v>
+      </c>
+      <c r="I50" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="1">
+        <v>12</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="1">
+        <v>3</v>
+      </c>
+      <c r="H51" s="1">
+        <v>30</v>
+      </c>
+      <c r="I51" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1">
+        <v>12</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="1">
+        <v>4</v>
+      </c>
+      <c r="H52" s="1">
+        <v>40</v>
+      </c>
+      <c r="I52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1">
+        <v>12</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1">
+        <v>10</v>
+      </c>
+      <c r="I53" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="1">
+        <v>12</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="1">
+        <v>2</v>
+      </c>
+      <c r="H54" s="1">
+        <v>20</v>
+      </c>
+      <c r="I54" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="1">
+        <v>12</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1">
+        <v>10</v>
+      </c>
+      <c r="I55" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="1">
+        <v>12</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="1">
+        <v>2</v>
+      </c>
+      <c r="H56" s="1">
+        <v>20</v>
+      </c>
+      <c r="I56" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="1">
+        <v>12</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" s="1">
+        <v>3</v>
+      </c>
+      <c r="H57" s="1">
+        <v>30</v>
+      </c>
+      <c r="I57" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="1">
+        <v>12</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1">
+        <v>10</v>
+      </c>
+      <c r="I58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="1">
+        <v>12</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2</v>
+      </c>
+      <c r="H59" s="1">
+        <v>20</v>
+      </c>
+      <c r="I59" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="1">
+        <v>12</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60" s="1">
+        <v>3</v>
+      </c>
+      <c r="H60" s="1">
+        <v>30</v>
+      </c>
+      <c r="I60" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="1">
+        <v>12</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G61" s="1">
+        <v>4</v>
+      </c>
+      <c r="H61" s="1">
+        <v>40</v>
+      </c>
+      <c r="I61" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="1">
+        <v>12</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+      <c r="H62" s="1">
+        <v>10</v>
+      </c>
+      <c r="I62" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="1">
+        <v>12</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2</v>
+      </c>
+      <c r="H63" s="1">
+        <v>20</v>
+      </c>
+      <c r="I63" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="1">
+        <v>12</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1">
+        <v>10</v>
+      </c>
+      <c r="I64" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="1">
+        <v>12</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1">
+        <v>10</v>
+      </c>
+      <c r="I65" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="1">
+        <v>12</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1">
+        <v>10</v>
+      </c>
+      <c r="I66" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="1">
+        <v>12</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G67" s="1">
+        <v>2</v>
+      </c>
+      <c r="H67" s="1">
+        <v>20</v>
+      </c>
+      <c r="I67" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="1">
+        <v>12</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1">
+        <v>10</v>
+      </c>
+      <c r="I68" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="1">
+        <v>12</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1">
+        <v>10</v>
+      </c>
+      <c r="I69" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="1">
+        <v>12</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1">
+        <v>10</v>
+      </c>
+      <c r="I70" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="1">
+        <v>12</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="H71" s="1">
+        <v>10</v>
+      </c>
+      <c r="I71" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="1">
+        <v>12</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1">
+        <v>10</v>
+      </c>
+      <c r="I72" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="1">
+        <v>12</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+      <c r="H73" s="1">
+        <v>10</v>
+      </c>
+      <c r="I73" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="1">
+        <v>12</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G74" s="1">
+        <v>2</v>
+      </c>
+      <c r="H74" s="1">
+        <v>20</v>
+      </c>
+      <c r="I74" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="1">
+        <v>12</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G75" s="1">
+        <v>3</v>
+      </c>
+      <c r="H75" s="1">
+        <v>30</v>
+      </c>
+      <c r="I75" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="1">
+        <v>12</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
+      <c r="H76" s="1">
+        <v>10</v>
+      </c>
+      <c r="I76" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="1">
+        <v>12</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1</v>
+      </c>
+      <c r="H77" s="1">
+        <v>10</v>
+      </c>
+      <c r="I77" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="1">
+        <v>12</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G78" s="1">
+        <v>2</v>
+      </c>
+      <c r="H78" s="1">
+        <v>20</v>
+      </c>
+      <c r="I78" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="1">
+        <v>12</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G79" s="1">
+        <v>3</v>
+      </c>
+      <c r="H79" s="1">
+        <v>30</v>
+      </c>
+      <c r="I79" s="1">
         <v>2</v>
       </c>
     </row>
